--- a/results/FinalResults.xlsx
+++ b/results/FinalResults.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -64,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -72,16 +72,229 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,75 +599,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F6"/>
+  <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>0.91300000000000003</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="13">
         <v>0.85529999999999995</v>
       </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16">
+        <v>0.9143</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>0.91469999999999996</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>0.85099999999999998</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10">
+        <v>0.91639999999999999</v>
       </c>
     </row>
   </sheetData>
